--- a/other/配置表/z-字符配置表.xlsx
+++ b/other/配置表/z-字符配置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1129\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\大魔王\配置表1204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BA126-9910-474D-B432-4C8A4AECC54D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AB502-A8C9-4945-822A-A6D44FC0C424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30000" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>醒醒，醒醒！\n是谁叫醒了我？这里又是哪里，为何不见一丝的光？\n勇士，我是游荡在深渊的精灵，你是被魔王抓来此处囚禁的\n那我该怎么做？\n往有光的地方逃出去，拼命的逃。\n此时，前方亮起了一丝微弱的光。</t>
+    <t>醒醒，醒醒！\n是谁叫醒了我？这里又是哪里，为何不见一丝的光？\n勇士，我是游荡在深渊的精灵\n而你，败于深渊魔王之手，被囚于此\n那我该怎么做？\n往有光的地方逃，拼命的逃。\n此时，前方亮起了一丝微弱的光。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
